--- a/csvs/bags_pivot.xlsx
+++ b/csvs/bags_pivot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidanair/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidanair/Documents/DATA/dj/csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472FF550-FA3B-2642-A23C-969869DCB22D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D408B552-47BA-514D-A3A0-1F1D2D168A57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1780,7 +1780,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1792,222 +1792,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -11700,7 +11484,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48B4240B-462F-6449-BDA1-19450EB938F4}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48B4240B-462F-6449-BDA1-19450EB938F4}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -13018,16 +12802,16 @@
     <dataField name="Sum of single-use plastic bags" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="71">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="1">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -13388,9 +13172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G926"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A872" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B884" sqref="B884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34707,12 +34491,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="79" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="77" priority="13" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34723,8 +34507,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9D1CAB-0760-454C-82D2-C7E526DA7ADB}">
   <dimension ref="A3:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisCol" start="1" max="4" activeRow="3" activeCol="2" previousRow="3" previousCol="2" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35025,11 +34818,6 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ContentTypeId="0x010100A5BF1C78D9F64B679A5EBDE1C6598EBC01" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -35037,80 +34825,12 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <dlc_EmailSentUTC xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
-    <peb8f3fab875401ca34a9f28cac46400 xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </peb8f3fab875401ca34a9f28cac46400>
-    <dlc_EmailReceivedUTC xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
-    <dlc_EmailFrom xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
-    <dlc_EmailCC xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
-    <dlc_EmailSubject xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
-    <TaxCatchAll xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Value>6</Value>
-      <Value>10</Value>
-      <Value>9</Value>
-      <Value>8</Value>
-      <Value>7</Value>
-    </TaxCatchAll>
-    <dlc_EmailTo xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
-    <bcb1675984d34ae3a1ed6b6e433c98de xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </bcb1675984d34ae3a1ed6b6e433c98de>
-    <cf401361b24e474cb011be6eb76c0e76 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Crown</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">69589897-2828-4761-976e-717fd8e631c9</TermId>
-        </TermInfo>
-      </Terms>
-    </cf401361b24e474cb011be6eb76c0e76>
-    <TaxCatchAllLabel xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5"/>
-    <k85d23755b3a46b5a51451cf336b2e9b xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </k85d23755b3a46b5a51451cf336b2e9b>
-    <Topic xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Core Data</Topic>
-    <HOMigrated xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">false</HOMigrated>
-    <ddeb1fd0a9ad4436a96525d34737dc44 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Core Defra</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">836ac8df-3ab9-4c95-a1f0-07f825804935</TermId>
-        </TermInfo>
-      </Terms>
-    </ddeb1fd0a9ad4436a96525d34737dc44>
-    <lae2bfa7b6474897ab4a53f76ea236c7 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Official</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">14c80daa-741b-422c-9722-f71693c9ede4</TermId>
-        </TermInfo>
-      </Terms>
-    </lae2bfa7b6474897ab4a53f76ea236c7>
-    <fe59e9859d6a491389c5b03567f5dda5 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Core Defra</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">026223dd-2e56-4615-868d-7c5bfd566810</TermId>
-        </TermInfo>
-      </Terms>
-    </fe59e9859d6a491389c5b03567f5dda5>
-    <Team xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Materials and Waste Evidence</Team>
-    <n7493b4506bf40e28c373b1e51a33445 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Team</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ff0485df-0575-416f-802f-e999165821b7</TermId>
-        </TermInfo>
-      </Terms>
-    </n7493b4506bf40e28c373b1e51a33445>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ContentTypeId="0x010100A5BF1C78D9F64B679A5EBDE1C6598EBC01" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Defra document" ma:contentTypeID="0x010100A5BF1C78D9F64B679A5EBDE1C6598EBC0100116FD2505822D545BE820C803F9522EC" ma:contentTypeVersion="68" ma:contentTypeDescription="new Document or upload" ma:contentTypeScope="" ma:versionID="7e80d1a299ae0e7835a8bcaade6fd556">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dfd283e-d7c6-4db4-b263-522c893cd078" xmlns:ns3="662745e8-e224-48e8-a2e3-254862b8c2f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7343d30a385e69779fe4c3d859ad8303" ns2:_="" ns3:_="">
     <xsd:import namespace="6dfd283e-d7c6-4db4-b263-522c893cd078"/>
@@ -35381,7 +35101,88 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <dlc_EmailSentUTC xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
+    <peb8f3fab875401ca34a9f28cac46400 xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </peb8f3fab875401ca34a9f28cac46400>
+    <dlc_EmailReceivedUTC xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
+    <dlc_EmailFrom xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
+    <dlc_EmailCC xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
+    <dlc_EmailSubject xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
+    <TaxCatchAll xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Value>6</Value>
+      <Value>10</Value>
+      <Value>9</Value>
+      <Value>8</Value>
+      <Value>7</Value>
+    </TaxCatchAll>
+    <dlc_EmailTo xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078" xsi:nil="true"/>
+    <bcb1675984d34ae3a1ed6b6e433c98de xmlns="6dfd283e-d7c6-4db4-b263-522c893cd078">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </bcb1675984d34ae3a1ed6b6e433c98de>
+    <cf401361b24e474cb011be6eb76c0e76 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Crown</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">69589897-2828-4761-976e-717fd8e631c9</TermId>
+        </TermInfo>
+      </Terms>
+    </cf401361b24e474cb011be6eb76c0e76>
+    <TaxCatchAllLabel xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5"/>
+    <k85d23755b3a46b5a51451cf336b2e9b xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </k85d23755b3a46b5a51451cf336b2e9b>
+    <Topic xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Core Data</Topic>
+    <HOMigrated xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">false</HOMigrated>
+    <ddeb1fd0a9ad4436a96525d34737dc44 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Core Defra</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">836ac8df-3ab9-4c95-a1f0-07f825804935</TermId>
+        </TermInfo>
+      </Terms>
+    </ddeb1fd0a9ad4436a96525d34737dc44>
+    <lae2bfa7b6474897ab4a53f76ea236c7 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Official</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">14c80daa-741b-422c-9722-f71693c9ede4</TermId>
+        </TermInfo>
+      </Terms>
+    </lae2bfa7b6474897ab4a53f76ea236c7>
+    <fe59e9859d6a491389c5b03567f5dda5 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Core Defra</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">026223dd-2e56-4615-868d-7c5bfd566810</TermId>
+        </TermInfo>
+      </Terms>
+    </fe59e9859d6a491389c5b03567f5dda5>
+    <Team xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Materials and Waste Evidence</Team>
+    <n7493b4506bf40e28c373b1e51a33445 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Team</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ff0485df-0575-416f-802f-e999165821b7</TermId>
+        </TermInfo>
+      </Terms>
+    </n7493b4506bf40e28c373b1e51a33445>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C22D177-05BB-44E7-8503-D1FB7BA1D856}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAEC55D3-CB95-42E2-8261-D6637BA74C0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -35389,32 +35190,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C22D177-05BB-44E7-8503-D1FB7BA1D856}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1352503-471D-483D-8ADE-C9E393E4A642}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6dfd283e-d7c6-4db4-b263-522c893cd078"/>
-    <ds:schemaRef ds:uri="662745e8-e224-48e8-a2e3-254862b8c2f5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73C28A4-862B-4C48-8076-48BD2088DEF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35431,4 +35207,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1352503-471D-483D-8ADE-C9E393E4A642}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6dfd283e-d7c6-4db4-b263-522c893cd078"/>
+    <ds:schemaRef ds:uri="662745e8-e224-48e8-a2e3-254862b8c2f5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>